--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-01.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-01.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1499,20 +1499,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2319,47 +2319,47 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S23" t="n">
         <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
         <v>1</v>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2429,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -3057,20 +3057,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3079,31 +3079,31 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R32" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S32" t="n">
         <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3959,53 +3959,53 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I43" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Q43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R43" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -4041,47 +4041,47 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
+        <v>18</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
         <v>11</v>
       </c>
-      <c r="I44" t="n">
-        <v>8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>9</v>
-      </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4123,17 +4123,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4151,19 +4151,19 @@
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4943,17 +4943,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
         <v>2</v>
@@ -4968,22 +4968,22 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P55" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5025,47 +5025,47 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P56" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5763,17 +5763,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K65" t="n">
         <v>2</v>
@@ -5782,22 +5782,22 @@
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -5806,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -5845,17 +5845,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
         <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -5870,10 +5870,10 @@
         <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -6829,20 +6829,20 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -6854,16 +6854,16 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -12405,17 +12405,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I146" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J146" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -12424,22 +12424,22 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P146" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
@@ -12451,7 +12451,7 @@
         <v>2</v>
       </c>
       <c r="V146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -12487,20 +12487,20 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -12512,22 +12512,22 @@
         <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P147" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R147" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U147" t="n">
         <v>0</v>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -12594,10 +12594,10 @@
         <v>0</v>
       </c>
       <c r="O148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P148" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -12651,17 +12651,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -12679,19 +12679,19 @@
         <v>0</v>
       </c>
       <c r="P149" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U149" t="n">
         <v>0</v>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12733,17 +12733,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Sun, February 1st at 1:00 PM EST</t>
+          <t>18:55 - 2nd Half</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -12761,13 +12761,13 @@
         <v>0</v>
       </c>
       <c r="P150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q150" t="n">
         <v>0</v>
       </c>
       <c r="R150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S150" t="n">
         <v>0</v>
@@ -12830,7 +12830,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -12843,7 +12843,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -12856,7 +12856,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -12865,27 +12865,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -12895,7 +12895,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-01.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-01.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V150"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1499,47 +1499,47 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
         <v>11</v>
       </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>10</v>
-      </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -2347,13 +2347,13 @@
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S23" t="n">
         <v>2</v>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -3057,11 +3057,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" t="n">
         <v>19</v>
@@ -3070,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="n">
         <v>7</v>
       </c>
       <c r="R32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S32" t="n">
         <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3191,50 +3191,50 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>ALA@FLA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3243,31 +3243,31 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3288,68 +3288,68 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J35" t="n">
         <v>8</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
         <v>38</v>
       </c>
       <c r="Q35" t="n">
+        <v>9</v>
+      </c>
+      <c r="R35" t="n">
+        <v>12</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
         <v>6</v>
       </c>
-      <c r="R35" t="n">
-        <v>9</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
       <c r="V35" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -3370,38 +3370,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I36" t="n">
         <v>16</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3410,28 +3410,28 @@
         <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q36" t="n">
         <v>6</v>
       </c>
       <c r="R36" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -3452,17 +3452,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3474,46 +3474,46 @@
         <v>10</v>
       </c>
       <c r="I37" t="n">
+        <v>16</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
         <v>11</v>
       </c>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
-      <c r="P37" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>8</v>
-      </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -3529,22 +3529,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3553,49 +3553,49 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
         <v>8</v>
       </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>9</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3616,17 +3616,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3635,49 +3635,49 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I39" t="n">
+        <v>13</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
         <v>9</v>
       </c>
-      <c r="J39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>4</v>
-      </c>
-      <c r="P39" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>7</v>
-      </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -3698,68 +3698,68 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
+        <v>9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>4</v>
+      </c>
+      <c r="U40" t="n">
         <v>5</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -3780,32 +3780,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3862,17 +3862,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3899,37 +3899,37 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3939,73 +3939,73 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ALA@FLA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="I43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q43" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4021,12 +4021,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4041,26 +4041,26 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4069,25 +4069,25 @@
         <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q44" t="n">
+        <v>9</v>
+      </c>
+      <c r="R44" t="n">
+        <v>12</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
         <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>11</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4108,12 +4108,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4123,99 +4123,99 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>ALA@FLA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -4224,34 +4224,34 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4272,17 +4272,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4291,49 +4291,49 @@
         </is>
       </c>
       <c r="H47" t="n">
+        <v>16</v>
+      </c>
+      <c r="I47" t="n">
         <v>11</v>
       </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P47" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -4354,17 +4354,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4373,49 +4373,49 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I48" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q48" t="n">
+        <v>6</v>
+      </c>
+      <c r="R48" t="n">
+        <v>16</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="n">
         <v>8</v>
       </c>
-      <c r="R48" t="n">
-        <v>20</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
-      <c r="T48" t="n">
-        <v>4</v>
-      </c>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4436,17 +4436,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4455,49 +4455,49 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I49" t="n">
+        <v>22</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q49" t="n">
         <v>8</v>
       </c>
-      <c r="J49" t="n">
-        <v>2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2</v>
-      </c>
-      <c r="O49" t="n">
-        <v>4</v>
-      </c>
-      <c r="P49" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
       <c r="R49" t="n">
+        <v>20</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4</v>
+      </c>
+      <c r="U49" t="n">
         <v>5</v>
       </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -4518,17 +4518,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4537,16 +4537,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
         <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4555,16 +4555,16 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P50" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R50" t="n">
         <v>5</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4595,40 +4595,40 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -4637,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Q51" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4658,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4682,35 +4682,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -4722,25 +4722,25 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P52" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R52" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>3</v>
@@ -4764,12 +4764,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4783,49 +4783,49 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -4846,17 +4846,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4865,46 +4865,46 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
         <v>2</v>
@@ -4913,7 +4913,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4928,35 +4928,35 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ALA@FLA</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J55" t="n">
         <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -4965,31 +4965,31 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
         <v>3</v>
       </c>
       <c r="P55" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -5025,20 +5025,20 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L56" t="n">
         <v>1</v>
@@ -5053,19 +5053,19 @@
         <v>4</v>
       </c>
       <c r="P56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5077,83 +5077,83 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>ALA@FLA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P57" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U57" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5174,17 +5174,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5193,37 +5193,37 @@
         </is>
       </c>
       <c r="H58" t="n">
+        <v>27</v>
+      </c>
+      <c r="I58" t="n">
+        <v>18</v>
+      </c>
+      <c r="J58" t="n">
+        <v>10</v>
+      </c>
+      <c r="K58" t="n">
         <v>6</v>
       </c>
-      <c r="I58" t="n">
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>5</v>
       </c>
-      <c r="J58" t="n">
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q58" t="n">
         <v>5</v>
       </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>3</v>
-      </c>
-      <c r="P58" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5232,10 +5232,10 @@
         <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V58" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -5256,17 +5256,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5275,49 +5275,49 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I59" t="n">
         <v>5</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P59" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -5333,22 +5333,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5357,49 +5357,49 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
         <v>22</v>
       </c>
-      <c r="J60" t="n">
-        <v>6</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>3</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" t="n">
-        <v>32</v>
-      </c>
       <c r="Q60" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5420,62 +5420,62 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
+        <v>15</v>
+      </c>
+      <c r="I61" t="n">
+        <v>22</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>7</v>
+      </c>
+      <c r="R61" t="n">
+        <v>20</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="n">
         <v>12</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>4</v>
-      </c>
-      <c r="P61" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>11</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
-      <c r="T61" t="n">
-        <v>3</v>
       </c>
       <c r="U61" t="n">
         <v>4</v>
@@ -5502,38 +5502,38 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -5542,28 +5542,28 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P62" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q62" t="n">
         <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
+        <v>3</v>
+      </c>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
         <v>6</v>
-      </c>
-      <c r="U62" t="n">
-        <v>2</v>
-      </c>
-      <c r="V62" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5603,49 +5603,49 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q63" t="n">
         <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S63" t="n">
         <v>2</v>
       </c>
       <c r="T63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5666,17 +5666,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5685,43 +5685,43 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J64" t="n">
         <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P64" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -5733,7 +5733,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5743,61 +5743,61 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ALA@FLA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3</v>
+      </c>
+      <c r="P65" t="n">
         <v>7</v>
       </c>
-      <c r="J65" t="n">
-        <v>13</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" t="n">
-        <v>23</v>
-      </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -5806,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5830,12 +5830,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5845,64 +5845,64 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5912,68 +5912,68 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>ALA@FLA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
         <v>4</v>
       </c>
       <c r="U67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -5994,17 +5994,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6013,49 +6013,49 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I68" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P68" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
         <v>10</v>
       </c>
-      <c r="R68" t="n">
-        <v>20</v>
-      </c>
       <c r="S68" t="n">
         <v>2</v>
       </c>
       <c r="T68" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -6076,68 +6076,68 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q69" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R69" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U69" t="n">
         <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -6158,62 +6158,62 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P70" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
         <v>2</v>
@@ -6235,73 +6235,73 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P71" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q71" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="S71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -6322,68 +6322,68 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P72" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R72" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6404,17 +6404,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6426,13 +6426,13 @@
         <v>10</v>
       </c>
       <c r="I73" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
         <v>1</v>
@@ -6441,31 +6441,31 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q73" t="n">
         <v>4</v>
       </c>
       <c r="R73" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S73" t="n">
         <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6505,17 +6505,17 @@
         </is>
       </c>
       <c r="H74" t="n">
+        <v>10</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3</v>
+      </c>
+      <c r="K74" t="n">
         <v>7</v>
       </c>
-      <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>4</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -6523,31 +6523,31 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P74" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R74" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T74" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -6568,17 +6568,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6590,46 +6590,46 @@
         <v>7</v>
       </c>
       <c r="I75" t="n">
+        <v>7</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+      <c r="P75" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
         <v>8</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2</v>
-      </c>
-      <c r="O75" t="n">
-        <v>4</v>
-      </c>
-      <c r="P75" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2</v>
-      </c>
-      <c r="R75" t="n">
-        <v>2</v>
-      </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6650,17 +6650,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -6687,31 +6687,31 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
         <v>4</v>
       </c>
       <c r="P76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U76" t="n">
         <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -6732,17 +6732,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6751,13 +6751,13 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -6772,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P77" t="n">
         <v>16</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" t="n">
         <v>1</v>
@@ -6787,19 +6787,19 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6809,40 +6809,40 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ALA@FLA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -6854,98 +6854,98 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P78" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>ALA@FLA</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I79" t="n">
         <v>13</v>
       </c>
       <c r="J79" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
         <v>25</v>
       </c>
       <c r="Q79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R79" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
@@ -6954,10 +6954,10 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -6978,68 +6978,68 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I80" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J80" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
         <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R80" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -7060,38 +7060,38 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -7100,28 +7100,28 @@
         <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P81" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R81" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U81" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V81" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -7142,17 +7142,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7161,31 +7161,31 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I82" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J82" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q82" t="n">
         <v>3</v>
@@ -7197,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V82" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -7224,17 +7224,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7243,49 +7243,49 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I83" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K83" t="n">
         <v>4</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P83" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q83" t="n">
         <v>3</v>
       </c>
       <c r="R83" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V83" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7325,49 +7325,49 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I84" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P84" t="n">
         <v>30</v>
       </c>
       <c r="Q84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R84" t="n">
+        <v>11</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="n">
+        <v>4</v>
+      </c>
+      <c r="U84" t="n">
         <v>8</v>
       </c>
-      <c r="S84" t="n">
-        <v>3</v>
-      </c>
-      <c r="T84" t="n">
-        <v>6</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0</v>
-      </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -7388,17 +7388,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7407,25 +7407,25 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>3</v>
@@ -7434,16 +7434,16 @@
         <v>30</v>
       </c>
       <c r="Q85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R85" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
@@ -7470,17 +7470,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -7489,43 +7489,43 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P86" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R86" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -7552,17 +7552,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7574,46 +7574,46 @@
         <v>14</v>
       </c>
       <c r="I87" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>2</v>
+      </c>
+      <c r="P87" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q87" t="n">
         <v>6</v>
       </c>
-      <c r="K87" t="n">
-        <v>2</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="n">
-        <v>1</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1</v>
-      </c>
-      <c r="P87" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>3</v>
-      </c>
       <c r="R87" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7634,56 +7634,56 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
         <v>14</v>
       </c>
       <c r="I88" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K88" t="n">
         <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
         <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P88" t="n">
         <v>23</v>
       </c>
       <c r="Q88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R88" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S88" t="n">
         <v>1</v>
@@ -7695,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="V88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -7716,68 +7716,68 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>14</v>
       </c>
       <c r="I89" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J89" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K89" t="n">
         <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R89" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T89" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7798,17 +7798,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7817,16 +7817,16 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I90" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -7835,25 +7835,25 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
         <v>4</v>
       </c>
       <c r="P90" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R90" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S90" t="n">
         <v>3</v>
       </c>
       <c r="T90" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
@@ -7880,35 +7880,35 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>13</v>
       </c>
       <c r="I91" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -7917,31 +7917,31 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P91" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R91" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S91" t="n">
         <v>3</v>
       </c>
       <c r="T91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U91" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -7962,41 +7962,41 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>13</v>
       </c>
       <c r="I92" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -8005,25 +8005,25 @@
         <v>2</v>
       </c>
       <c r="P92" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Q92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -8044,17 +8044,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -8063,49 +8063,49 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I93" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2</v>
+      </c>
+      <c r="P93" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
         <v>7</v>
       </c>
-      <c r="K93" t="n">
-        <v>1</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>2</v>
-      </c>
-      <c r="O93" t="n">
-        <v>3</v>
-      </c>
-      <c r="P93" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>2</v>
-      </c>
-      <c r="R93" t="n">
-        <v>2</v>
-      </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -8126,17 +8126,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -8148,46 +8148,46 @@
         <v>12</v>
       </c>
       <c r="I94" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J94" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O94" t="n">
         <v>3</v>
       </c>
       <c r="P94" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
         <v>8</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0</v>
-      </c>
-      <c r="T94" t="n">
-        <v>0</v>
-      </c>
-      <c r="U94" t="n">
-        <v>3</v>
-      </c>
-      <c r="V94" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -8208,17 +8208,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8233,10 +8233,10 @@
         <v>11</v>
       </c>
       <c r="J95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
@@ -8245,31 +8245,31 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P95" t="n">
         <v>25</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R95" t="n">
         <v>8</v>
       </c>
       <c r="S95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
         <v>6</v>
-      </c>
-      <c r="U95" t="n">
-        <v>2</v>
-      </c>
-      <c r="V95" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -8290,35 +8290,35 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H96" t="n">
         <v>12</v>
       </c>
       <c r="I96" t="n">
+        <v>11</v>
+      </c>
+      <c r="J96" t="n">
         <v>6</v>
       </c>
-      <c r="J96" t="n">
-        <v>5</v>
-      </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -8330,28 +8330,28 @@
         <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q96" t="n">
         <v>3</v>
       </c>
       <c r="R96" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -8397,31 +8397,31 @@
         <v>6</v>
       </c>
       <c r="J97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P97" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q97" t="n">
         <v>3</v>
       </c>
       <c r="R97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -8454,17 +8454,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8476,46 +8476,46 @@
         <v>12</v>
       </c>
       <c r="I98" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
         <v>2</v>
       </c>
       <c r="P98" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -8536,17 +8536,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8555,49 +8555,49 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>7</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2</v>
+      </c>
+      <c r="P99" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="n">
         <v>6</v>
       </c>
-      <c r="J99" t="n">
+      <c r="V99" t="n">
         <v>8</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>1</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>2</v>
-      </c>
-      <c r="R99" t="n">
-        <v>7</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0</v>
-      </c>
-      <c r="T99" t="n">
-        <v>2</v>
-      </c>
-      <c r="U99" t="n">
-        <v>2</v>
-      </c>
-      <c r="V99" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -8618,17 +8618,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8640,43 +8640,43 @@
         <v>11</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J100" t="n">
         <v>8</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R100" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V100" t="n">
         <v>2</v>
@@ -8700,17 +8700,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8719,49 +8719,49 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I101" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P101" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -8782,12 +8782,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -8804,46 +8804,46 @@
         <v>10</v>
       </c>
       <c r="I102" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P102" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
         <v>6</v>
       </c>
-      <c r="R102" t="n">
-        <v>14</v>
-      </c>
       <c r="S102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8883,49 +8883,49 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I103" t="n">
+        <v>14</v>
+      </c>
+      <c r="J103" t="n">
         <v>5</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R103" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T103" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -8946,17 +8946,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -8965,19 +8965,19 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -8986,28 +8986,28 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P104" t="n">
         <v>15</v>
       </c>
       <c r="Q104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -9028,17 +9028,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -9050,10 +9050,10 @@
         <v>8</v>
       </c>
       <c r="I105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -9068,22 +9068,22 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q105" t="n">
         <v>3</v>
       </c>
       <c r="R105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U105" t="n">
         <v>0</v>
@@ -9110,35 +9110,35 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
         <v>8</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -9147,19 +9147,19 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S106" t="n">
         <v>1</v>
@@ -9192,35 +9192,35 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H107" t="n">
         <v>8</v>
       </c>
       <c r="I107" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -9229,31 +9229,31 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R107" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -9293,49 +9293,49 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P108" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Q108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R108" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -9356,17 +9356,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -9378,46 +9378,46 @@
         <v>7</v>
       </c>
       <c r="I109" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P109" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -9438,17 +9438,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -9457,49 +9457,49 @@
         </is>
       </c>
       <c r="H110" t="n">
+        <v>7</v>
+      </c>
+      <c r="I110" t="n">
+        <v>7</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="n">
+        <v>5</v>
+      </c>
+      <c r="P110" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
         <v>6</v>
       </c>
-      <c r="I110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P110" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>1</v>
-      </c>
-      <c r="R110" t="n">
-        <v>1</v>
-      </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -9520,17 +9520,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -9542,7 +9542,7 @@
         <v>6</v>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
         <v>2</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9578,10 +9578,10 @@
         <v>0</v>
       </c>
       <c r="U111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -9602,17 +9602,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -9624,34 +9624,34 @@
         <v>6</v>
       </c>
       <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
         <v>5</v>
       </c>
-      <c r="J112" t="n">
-        <v>2</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1</v>
-      </c>
-      <c r="P112" t="n">
-        <v>14</v>
-      </c>
       <c r="Q112" t="n">
         <v>1</v>
       </c>
       <c r="R112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
@@ -9660,10 +9660,10 @@
         <v>0</v>
       </c>
       <c r="U112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V112" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -9706,46 +9706,46 @@
         <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="n">
         <v>1</v>
       </c>
       <c r="P113" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R113" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -9766,17 +9766,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -9788,10 +9788,10 @@
         <v>6</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J114" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -9809,22 +9809,22 @@
         <v>1</v>
       </c>
       <c r="P114" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R114" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V114" t="n">
         <v>2</v>
@@ -9848,17 +9848,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -9870,46 +9870,46 @@
         <v>6</v>
       </c>
       <c r="I115" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
         <v>4</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R115" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -9930,17 +9930,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -9949,43 +9949,43 @@
         </is>
       </c>
       <c r="H116" t="n">
+        <v>6</v>
+      </c>
+      <c r="I116" t="n">
+        <v>7</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>3</v>
+      </c>
+      <c r="R116" t="n">
+        <v>7</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="n">
         <v>5</v>
-      </c>
-      <c r="I116" t="n">
-        <v>4</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>1</v>
-      </c>
-      <c r="O116" t="n">
-        <v>2</v>
-      </c>
-      <c r="P116" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>2</v>
-      </c>
-      <c r="R116" t="n">
-        <v>5</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0</v>
-      </c>
-      <c r="T116" t="n">
-        <v>1</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
@@ -10012,22 +10012,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -10037,10 +10037,10 @@
         <v>4</v>
       </c>
       <c r="J117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -10049,25 +10049,25 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P117" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q117" t="n">
         <v>2</v>
       </c>
       <c r="R117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S117" t="n">
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U117" t="n">
         <v>0</v>
@@ -10094,68 +10094,68 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H118" t="n">
         <v>5</v>
       </c>
       <c r="I118" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q118" t="n">
         <v>2</v>
       </c>
       <c r="R118" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -10176,17 +10176,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -10198,13 +10198,13 @@
         <v>5</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L119" t="n">
         <v>1</v>
@@ -10213,28 +10213,28 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R119" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V119" t="n">
         <v>2</v>
@@ -10258,17 +10258,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -10277,16 +10277,16 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L120" t="n">
         <v>1</v>
@@ -10295,28 +10295,28 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
         <v>1</v>
       </c>
       <c r="P120" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V120" t="n">
         <v>2</v>
@@ -10340,68 +10340,68 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H121" t="n">
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R121" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T121" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -10422,35 +10422,35 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -10459,31 +10459,31 @@
         <v>1</v>
       </c>
       <c r="N122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R122" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -10504,17 +10504,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -10526,40 +10526,40 @@
         <v>3</v>
       </c>
       <c r="I123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S123" t="n">
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
@@ -10586,17 +10586,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -10608,40 +10608,40 @@
         <v>3</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O124" t="n">
         <v>1</v>
       </c>
       <c r="P124" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R124" t="n">
         <v>4</v>
       </c>
       <c r="S124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U124" t="n">
         <v>0</v>
@@ -10668,68 +10668,68 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P125" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -10750,38 +10750,38 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H126" t="n">
         <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -10793,13 +10793,13 @@
         <v>2</v>
       </c>
       <c r="P126" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R126" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
@@ -10808,10 +10808,10 @@
         <v>1</v>
       </c>
       <c r="U126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -10832,17 +10832,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -10854,13 +10854,13 @@
         <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -10869,25 +10869,25 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P127" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -10939,37 +10939,37 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
@@ -10996,17 +10996,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -11021,22 +11021,22 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
         <v>2</v>
       </c>
       <c r="O129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P129" t="n">
         <v>12</v>
@@ -11045,13 +11045,13 @@
         <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S129" t="n">
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
@@ -11078,17 +11078,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -11109,19 +11109,19 @@
         <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
         <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P130" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q130" t="n">
         <v>0</v>
@@ -11160,17 +11160,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -11188,22 +11188,22 @@
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
@@ -11242,22 +11242,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q132" t="n">
         <v>0</v>
@@ -11324,22 +11324,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P133" t="n">
         <v>5</v>
@@ -11406,17 +11406,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -11440,13 +11440,13 @@
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="n">
         <v>5</v>
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="R134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -11531,13 +11531,13 @@
         <v>0</v>
       </c>
       <c r="P135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S135" t="n">
         <v>0</v>
@@ -11570,17 +11570,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -11595,10 +11595,10 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="P136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q136" t="n">
         <v>0</v>
@@ -11652,17 +11652,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -11674,13 +11674,13 @@
         <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -11692,28 +11692,28 @@
         <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P137" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q137" t="n">
         <v>0</v>
       </c>
       <c r="R137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -11734,17 +11734,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -11753,13 +11753,13 @@
         </is>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -11774,28 +11774,28 @@
         <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P138" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -11816,12 +11816,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -11856,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P139" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
@@ -11898,17 +11898,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -11920,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -11935,25 +11935,25 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P140" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
@@ -11980,17 +11980,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -12017,25 +12017,25 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S141" t="n">
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U141" t="n">
         <v>0</v>
@@ -12062,17 +12062,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Niko Bundalo</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -12105,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="P142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
@@ -12144,17 +12144,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Niko Bundalo</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -12163,10 +12163,10 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -12175,31 +12175,31 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R143" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S143" t="n">
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
@@ -12226,17 +12226,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -12248,34 +12248,34 @@
         <v>-1</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P144" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S144" t="n">
         <v>0</v>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="H145" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -12345,13 +12345,13 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P145" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U145" t="n">
         <v>0</v>
@@ -12375,7 +12375,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -12390,32 +12390,32 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ALA@FLA</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="I146" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -12424,22 +12424,22 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P146" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
@@ -12448,10 +12448,10 @@
         <v>0</v>
       </c>
       <c r="U146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -12487,42 +12487,42 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H147" t="n">
+        <v>12</v>
+      </c>
+      <c r="I147" t="n">
+        <v>10</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>4</v>
+      </c>
+      <c r="P147" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>4</v>
+      </c>
+      <c r="R147" t="n">
         <v>8</v>
       </c>
-      <c r="I147" t="n">
-        <v>5</v>
-      </c>
-      <c r="J147" t="n">
-        <v>3</v>
-      </c>
-      <c r="K147" t="n">
-        <v>3</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0</v>
-      </c>
-      <c r="O147" t="n">
-        <v>3</v>
-      </c>
-      <c r="P147" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>2</v>
-      </c>
-      <c r="R147" t="n">
-        <v>5</v>
-      </c>
       <c r="S147" t="n">
         <v>1</v>
       </c>
@@ -12530,10 +12530,10 @@
         <v>2</v>
       </c>
       <c r="U147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -12554,12 +12554,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -12569,17 +12569,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -12588,22 +12588,22 @@
         <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P148" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Q148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S148" t="n">
         <v>0</v>
@@ -12612,10 +12612,10 @@
         <v>0</v>
       </c>
       <c r="U148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -12636,12 +12636,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>18:55 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -12670,34 +12670,34 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
       </c>
       <c r="O149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P149" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
       </c>
       <c r="R149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -12718,67 +12718,149 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>ALA@FLA</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>7:47 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P150" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>1</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3</v>
+      </c>
+      <c r="S150" t="n">
+        <v>1</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>Noah Williamson</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>ALA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>ALA@FLA</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>18:55 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0</v>
-      </c>
-      <c r="P150" t="n">
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>7:47 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
         <v>5</v>
       </c>
-      <c r="Q150" t="n">
-        <v>0</v>
-      </c>
-      <c r="R150" t="n">
-        <v>0</v>
-      </c>
-      <c r="S150" t="n">
-        <v>0</v>
-      </c>
-      <c r="T150" t="n">
-        <v>0</v>
-      </c>
-      <c r="U150" t="n">
-        <v>0</v>
-      </c>
-      <c r="V150" t="n">
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12843,7 +12925,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -12856,7 +12938,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -12869,7 +12951,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -12882,7 +12964,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -12895,7 +12977,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-01.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-01.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V151"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q23" t="n">
         <v>9</v>
@@ -2362,10 +2362,10 @@
         <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3221,17 +3221,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4041,21 +4041,21 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I44" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J44" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" t="n">
         <v>6</v>
       </c>
-      <c r="K44" t="n">
-        <v>5</v>
-      </c>
       <c r="L44" t="n">
         <v>2</v>
       </c>
@@ -4069,13 +4069,13 @@
         <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R44" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="V44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -4123,20 +4123,20 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L45" t="n">
         <v>8</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q45" t="n">
         <v>6</v>
@@ -4166,10 +4166,10 @@
         <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -5010,12 +5010,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5025,20 +5025,20 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>1</v>
@@ -5047,25 +5047,25 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5092,12 +5092,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5107,20 +5107,20 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -5129,25 +5129,25 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P57" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -5845,17 +5845,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K66" t="n">
         <v>3</v>
@@ -5873,13 +5873,13 @@
         <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -5888,10 +5888,10 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V66" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -5927,14 +5927,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J67" t="n">
         <v>4</v>
@@ -5949,25 +5949,25 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P67" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U67" t="n">
         <v>2</v>
@@ -6911,11 +6911,11 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I79" t="n">
         <v>13</v>
@@ -6924,7 +6924,7 @@
         <v>5</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -6939,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q79" t="n">
         <v>5</v>
@@ -12487,20 +12487,20 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>4</v>
       </c>
       <c r="P147" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q147" t="n">
         <v>4</v>
@@ -12530,10 +12530,10 @@
         <v>2</v>
       </c>
       <c r="U147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -12569,17 +12569,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I148" t="n">
         <v>6</v>
       </c>
       <c r="J148" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -12594,10 +12594,10 @@
         <v>2</v>
       </c>
       <c r="O148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P148" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q148" t="n">
         <v>2</v>
@@ -12636,12 +12636,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -12651,14 +12651,14 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -12670,34 +12670,34 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
       </c>
       <c r="O149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -12718,12 +12718,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -12752,34 +12752,34 @@
         <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
       </c>
       <c r="O150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
       </c>
       <c r="R150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -12800,67 +12800,477 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
+          <t>Olivier Rioux</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>ALA@FLA</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>3:36 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>1</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>Noah Williamson</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>ALA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>ALA@FLA</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>7:47 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>1</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>0</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0</v>
-      </c>
-      <c r="P151" t="n">
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>3:36 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
         <v>5</v>
       </c>
-      <c r="Q151" t="n">
-        <v>0</v>
-      </c>
-      <c r="R151" t="n">
-        <v>0</v>
-      </c>
-      <c r="S151" t="n">
-        <v>0</v>
-      </c>
-      <c r="T151" t="n">
-        <v>0</v>
-      </c>
-      <c r="U151" t="n">
-        <v>0</v>
-      </c>
-      <c r="V151" t="n">
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Alex Kovatchev</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>ALA@FLA</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>3:36 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" t="n">
+        <v>0</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Alex Lloyd</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ALA@FLA</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>3:36 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S154" t="n">
+        <v>0</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>CJ Ingram</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ALA@FLA</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>3:36 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
+      <c r="S155" t="n">
+        <v>0</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Viktor Mikic</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>ALA@FLA</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>3:36 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
+      <c r="S156" t="n">
+        <v>0</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0</v>
+      </c>
+      <c r="V156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12912,7 +13322,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -12925,7 +13335,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -12938,7 +13348,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -12951,7 +13361,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-01.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-01.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -12487,7 +12487,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -12897,7 +12897,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -12979,7 +12979,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>3:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H156" t="n">
